--- a/natmiOut/YoungD0/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H2">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>990.7456835192357</v>
+        <v>1798.96309521053</v>
       </c>
       <c r="R2">
-        <v>990.7456835192357</v>
+        <v>16190.66785689477</v>
       </c>
       <c r="S2">
-        <v>0.01261191557092641</v>
+        <v>0.02169893390317983</v>
       </c>
       <c r="T2">
-        <v>0.01261191557092641</v>
+        <v>0.02169893390317983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H3">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>25381.49856876284</v>
+        <v>26874.02994498991</v>
       </c>
       <c r="R3">
-        <v>25381.49856876284</v>
+        <v>241866.2695049091</v>
       </c>
       <c r="S3">
-        <v>0.3230993809387727</v>
+        <v>0.3241521746838101</v>
       </c>
       <c r="T3">
-        <v>0.3230993809387727</v>
+        <v>0.3241521746838101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H4">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>3186.484452548628</v>
+        <v>3431.546488990989</v>
       </c>
       <c r="R4">
-        <v>3186.484452548628</v>
+        <v>30883.9184009189</v>
       </c>
       <c r="S4">
-        <v>0.0405630562435175</v>
+        <v>0.04139101054854615</v>
       </c>
       <c r="T4">
-        <v>0.0405630562435175</v>
+        <v>0.04139101054854615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>1360.433417612838</v>
+        <v>2346.22597749238</v>
       </c>
       <c r="R5">
-        <v>1360.433417612838</v>
+        <v>21116.03379743142</v>
       </c>
       <c r="S5">
-        <v>0.01731793707326997</v>
+        <v>0.02829997043467567</v>
       </c>
       <c r="T5">
-        <v>0.01731793707326997</v>
+        <v>0.02829997043467567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>34852.37373872138</v>
+        <v>35049.38336128817</v>
       </c>
       <c r="R6">
-        <v>34852.37373872138</v>
+        <v>315444.4502515935</v>
       </c>
       <c r="S6">
-        <v>0.443660974103646</v>
+        <v>0.4227625652402829</v>
       </c>
       <c r="T6">
-        <v>0.443660974103646</v>
+        <v>0.4227625652402829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>4375.492122814519</v>
+        <v>4475.457855071345</v>
       </c>
       <c r="R7">
-        <v>4375.492122814519</v>
+        <v>40279.1206956421</v>
       </c>
       <c r="S7">
-        <v>0.05569879147812493</v>
+        <v>0.05398257720917568</v>
       </c>
       <c r="T7">
-        <v>0.05569879147812493</v>
+        <v>0.05398257720917568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H8">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>281.8615944930852</v>
+        <v>500.3879611860266</v>
       </c>
       <c r="R8">
-        <v>281.8615944930852</v>
+        <v>4503.49165067424</v>
       </c>
       <c r="S8">
-        <v>0.003588019298561464</v>
+        <v>0.006035635374972394</v>
       </c>
       <c r="T8">
-        <v>0.003588019298561464</v>
+        <v>0.006035635374972394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H9">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>7220.894096458161</v>
+        <v>7475.106681636508</v>
       </c>
       <c r="R9">
-        <v>7220.894096458161</v>
+        <v>67275.96013472858</v>
       </c>
       <c r="S9">
-        <v>0.09191996312075085</v>
+        <v>0.09016407631478747</v>
       </c>
       <c r="T9">
-        <v>0.09191996312075085</v>
+        <v>0.09016407631478747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H10">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>906.5369686320155</v>
+        <v>954.4968187022861</v>
       </c>
       <c r="R10">
-        <v>906.5369686320155</v>
+        <v>8590.471368320575</v>
       </c>
       <c r="S10">
-        <v>0.01153996217243026</v>
+        <v>0.0115130562905697</v>
       </c>
       <c r="T10">
-        <v>0.01153996217243026</v>
+        <v>0.0115130562905697</v>
       </c>
     </row>
   </sheetData>
